--- a/project/uploads/93/split_output/项目特殊说明.xlsx
+++ b/project/uploads/93/split_output/项目特殊说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEEE96B-CC59-44F3-9A94-3BE414E5B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1398074-27AA-4516-8DDA-44CFE9C538C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E3C46C0B-AD9C-4FD4-9BF4-E1883E9466CC}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{4FA61D6E-A66F-4571-9A11-8E4D517A32FF}"/>
   </bookViews>
   <sheets>
     <sheet name="项目特殊说明" sheetId="1" r:id="rId1"/>
@@ -1729,7 +1729,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D04477-86F9-4190-9935-F01342952548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA38F1F0-5AA0-48AB-976D-0F659B238F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,8 +1745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2581910"/>
-          <a:ext cx="2835275" cy="1905000"/>
+          <a:off x="9525" y="2540000"/>
+          <a:ext cx="2835275" cy="1836420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,7 +1777,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710434F3-D3D5-4404-AA9B-00433A1B8B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A595AB-E380-4869-AC5A-550E7D05CF98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,8 +1793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1210945" y="21642070"/>
-          <a:ext cx="2877820" cy="1318260"/>
+          <a:off x="1210945" y="20915630"/>
+          <a:ext cx="2877820" cy="1313180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,7 +1825,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8B1D11-8D8A-482A-8E1A-424CC1919DC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658EB2BE-E71A-4F36-91A7-9008B29112D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,8 +1841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="23812500"/>
-          <a:ext cx="5922010" cy="2059940"/>
+          <a:off x="635" y="23054310"/>
+          <a:ext cx="5922010" cy="1983740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,7 +1873,7 @@
         <xdr:cNvPr id="5" name="组合 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CB9BD1-2113-4553-9D4F-7769F757A306}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CD7F42-5F75-49E0-834A-AEC2156F2E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1881,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="534670" y="19672935"/>
+          <a:off x="534670" y="19002375"/>
           <a:ext cx="4571365" cy="9525"/>
           <a:chOff x="838200" y="6542723"/>
           <a:chExt cx="4572000" cy="9554"/>
@@ -1892,7 +1892,7 @@
           <xdr:cNvPr id="6" name="直接连接符 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B45FBCB-85D7-D081-71F4-5E143E7149EC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3BFD4A-8339-93F2-CDB8-F0ED80669344}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1934,7 +1934,7 @@
           <xdr:cNvPr id="7" name="直接连接符 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415463C0-1B17-7546-7994-FF80E97DB016}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D3143E-6450-CDA0-0090-E9C62EF03F60}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1976,7 +1976,7 @@
           <xdr:cNvPr id="8" name="直接连接符 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54037117-B705-872D-072D-138AEB6085B1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961A1D51-5B61-8CEC-2AED-5C88E95AE979}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2018,7 +2018,7 @@
           <xdr:cNvPr id="9" name="直接连接符 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F1A198-1E54-A700-FAD0-7398324D9A93}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240DD401-9708-51E3-050E-335C42959B9D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2060,7 +2060,7 @@
           <xdr:cNvPr id="10" name="直接连接符 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDC305F-9C66-85A6-CBA7-4C49F9F6F844}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F591E969-BDC8-BE42-906B-C7F41A922BCF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2102,7 +2102,7 @@
           <xdr:cNvPr id="11" name="直接连接符 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F1C38D-A97A-9AD3-CCDC-1183FA610638}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15650EEA-3A81-8BF7-44CE-21B91A57F579}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2160,7 +2160,7 @@
         <xdr:cNvPr id="12" name="组合 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD02E8DF-8CE4-4A8F-A6C4-133A9B1CF676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5447C5B8-5ECD-4725-91E7-8BF1DA0DC258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,8 +2168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1222375" y="2763520"/>
-          <a:ext cx="6666865" cy="1772920"/>
+          <a:off x="1222375" y="2713990"/>
+          <a:ext cx="6666865" cy="1704340"/>
           <a:chOff x="-7610474" y="1804867"/>
           <a:chExt cx="6666865" cy="1431201"/>
         </a:xfrm>
@@ -2179,7 +2179,7 @@
           <xdr:cNvPr id="13" name="直接箭头连接符 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AC7F66-17C8-41A2-B4CF-B658C744CDF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5272AD-454D-1897-09F6-BE3BDB52CBDA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2221,7 +2221,7 @@
           <xdr:cNvPr id="14" name="矩形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B124F7E8-7344-7876-41F9-A2EF1F8729E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2111D1DD-6996-1046-07E2-C6F334BBA975}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2379,7 +2379,7 @@
           <xdr:cNvPr id="15" name="肘形连接符 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AB52AA-5ED4-B01A-CBF9-D32E0059A933}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AAC8CF-E4AC-87E4-46D3-3FDA73698C86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2423,7 +2423,7 @@
           <xdr:cNvPr id="16" name="矩形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC29ECE-3B25-C587-2B88-95F7A9B17E85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0199FEA-DFD6-5D2F-29B1-2F0E8DA1E3AC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2564,7 +2564,7 @@
           <xdr:cNvPr id="17" name="肘形连接符 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6914FD-F037-068C-20BD-E3EB5A2180A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0290CEA2-7564-EEE8-A6F5-410512AE5F1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2608,7 +2608,7 @@
           <xdr:cNvPr id="18" name="肘形连接符 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762C6D91-6B53-77D7-EF11-485B7092F785}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64B227E-03A3-D41A-3DB3-A0DD333318B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
           <xdr:cNvPr id="19" name="矩形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB13D4D-9D71-4D85-F863-EAD33A5414C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615E9CF1-A140-3584-7992-91C1035CD53F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="20" name="文本框 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6981EF-03F3-4912-B2F9-AC64117C5462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5DED1C-F096-4818-8563-F2157422A730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,8 +2817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="5896610"/>
-          <a:ext cx="13481685" cy="3927475"/>
+          <a:off x="152400" y="5748020"/>
+          <a:ext cx="13476605" cy="3775075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,7 +3448,7 @@
         <xdr:cNvPr id="21" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90881259-F4F1-4F0E-BE8A-D4DDD58898C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688A4DD1-027B-40D3-96F1-2FE3CD884494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,8 +3456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303905" y="4304030"/>
-          <a:ext cx="2495550" cy="389255"/>
+          <a:off x="3303905" y="4201160"/>
+          <a:ext cx="2495550" cy="374015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3604,7 +3604,7 @@
         <xdr:cNvPr id="22" name="文本框 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F25D4C6-1624-487C-A75A-A14017C489BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020F01A2-9157-4E31-B112-44185736AB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,8 +3612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78740" y="10452100"/>
-          <a:ext cx="8061960" cy="561340"/>
+          <a:off x="78740" y="10128250"/>
+          <a:ext cx="8061960" cy="538480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3767,7 +3767,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2502400C-DACC-4322-BCB3-8053EBDFB209}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E82D60C-B329-4E9C-B0BA-967E44657C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,8 +3783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12719685"/>
-          <a:ext cx="6592570" cy="3186430"/>
+          <a:off x="9525" y="12315825"/>
+          <a:ext cx="6592570" cy="3064510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,7 +3815,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9394DAFF-73FC-413E-90A8-27064BD44BF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09B1722-ABA7-433C-AD99-79F00397DA9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3823,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6219825" y="13096875"/>
+          <a:off x="6219825" y="12677775"/>
           <a:ext cx="800100" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3863,7 +3863,7 @@
         <xdr:cNvPr id="25" name="文本框 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CAC7B4-87FF-4309-846B-C947394BFE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D09E85-9B90-41C6-95E7-D1F0F90BBC5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,8 +3871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6991985" y="12708890"/>
-          <a:ext cx="3052445" cy="548005"/>
+          <a:off x="6991985" y="12305030"/>
+          <a:ext cx="3047365" cy="525145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3947,7 +3947,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D29AC3-A748-4E9C-81A3-314CD63C9ACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D245565-DF56-4D5E-BCE9-E85EB8E1CE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,7 +3955,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5251450" y="13439140"/>
+          <a:off x="5251450" y="13004800"/>
           <a:ext cx="800100" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3995,7 +3995,7 @@
         <xdr:cNvPr id="27" name="文本框 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CD02E7-2592-4998-89F2-70816C8085FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CC400B-393E-4F63-AADF-11AC8E960E21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,8 +4003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6118860" y="13336270"/>
-          <a:ext cx="1390015" cy="247650"/>
+          <a:off x="6118860" y="12909550"/>
+          <a:ext cx="1390015" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4174,7 +4174,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FBBCDA-A135-4E9C-ADB7-2FF66A50701F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99880524-9DCA-4775-A2B4-EB3A5A00D78F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,8 +4190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="16115665"/>
-          <a:ext cx="6510020" cy="2747010"/>
+          <a:off x="95250" y="15582265"/>
+          <a:ext cx="6510020" cy="2640330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4222,7 +4222,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1404AFE3-36B0-4F00-A3A0-18586C0D0B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0292FB3-0E8B-4C70-B3BF-F0AA4F18DE36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4230,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5216525" y="13764260"/>
+          <a:off x="5216525" y="13322300"/>
           <a:ext cx="800100" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4270,7 +4270,7 @@
         <xdr:cNvPr id="30" name="文本框 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF6FA86-1E2A-4401-A828-E0FE7B1FF6D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D740846C-9C18-4923-B032-F5AA81760103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,8 +4278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6083935" y="13678535"/>
-          <a:ext cx="1390015" cy="257810"/>
+          <a:off x="6083935" y="13236575"/>
+          <a:ext cx="1390015" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4449,7 +4449,7 @@
         <xdr:cNvPr id="31" name="直接连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA92374-4EC7-4C69-8359-6F9DF379801F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5974E71D-23F0-4F4C-A2D1-E7EA1A8F51AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4457,7 +4457,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="14030325"/>
+          <a:off x="66675" y="13573125"/>
           <a:ext cx="5381625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4497,7 +4497,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128EC7A7-1EEE-40FB-804C-271E2224F7AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD3C8EA-EB58-4A3B-956E-E9F0D08E5E87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,7 +4505,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60325" y="14384020"/>
+          <a:off x="60325" y="13919200"/>
           <a:ext cx="5381625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4545,7 +4545,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE02E9ED-66D4-4BB3-BB3C-DC1B44DB6977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3FF870-006B-4676-983A-0BB4BD8DD444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4553,7 +4553,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25400" y="14716760"/>
+          <a:off x="25400" y="14236700"/>
           <a:ext cx="5381625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4593,7 +4593,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B86FED-C2D3-48DC-9D79-78DE898FDEC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF0194F-18AB-404A-AE91-22697F21A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4603,7 +4603,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3800475" y="15074900"/>
+          <a:off x="3800475" y="14579600"/>
           <a:ext cx="2277110" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4643,7 +4643,7 @@
         <xdr:cNvPr id="35" name="文本框 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F90E7A-BD05-4939-BDBB-D934EED9E412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A724B-F65C-4AA8-8A0E-A5DFB0AAC3F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,8 +4651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6077585" y="14937105"/>
-          <a:ext cx="1390015" cy="274955"/>
+          <a:off x="6077585" y="14449425"/>
+          <a:ext cx="1390015" cy="259715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4822,7 +4822,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBF90DD-B6AB-446D-9075-05FBC020C41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31227A1F-8767-47D6-A44A-F834280858A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4832,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3784600" y="15417165"/>
+          <a:off x="3784600" y="14906625"/>
           <a:ext cx="2277110" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4872,7 +4872,7 @@
         <xdr:cNvPr id="37" name="文本框 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A855E7-902D-460C-93E8-5D3574537603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F444FBAA-FD6F-47A5-96BF-AA928CEA333B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,8 +4880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6061710" y="15279370"/>
-          <a:ext cx="1390015" cy="257810"/>
+          <a:off x="6061710" y="14776450"/>
+          <a:ext cx="1390015" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5051,7 +5051,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48A28D4-8350-46D4-A4B4-EE8B974B54AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDB566F-224E-4A23-BE62-26F9BFEBABBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5061,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5718175" y="16640810"/>
+          <a:off x="5718175" y="16084550"/>
           <a:ext cx="778510" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5101,7 +5101,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E5BCF0-6FDB-4820-A405-87251F6BF688}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E133EAD6-7561-4A1D-990C-4D7B8C4114A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5109,8 +5109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496685" y="16503015"/>
-          <a:ext cx="1390015" cy="257810"/>
+          <a:off x="6496685" y="15954375"/>
+          <a:ext cx="1390015" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5279,7 +5279,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14182873-C8BB-46F7-86B6-F8A36E72D051}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DAC43B-F643-486E-B540-9BDA7E825735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5287,8 +5287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="16965930"/>
-          <a:ext cx="5381625" cy="26670"/>
+          <a:off x="695325" y="16402050"/>
+          <a:ext cx="5381625" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5327,7 +5327,7 @@
         <xdr:cNvPr id="41" name="直接箭头连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74B4AC5-98C4-4771-865A-AB9E318A9586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0717000A-3887-43E2-B322-1C9FC9A1AA09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5337,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5343525" y="17333595"/>
+          <a:off x="5343525" y="16754475"/>
           <a:ext cx="1070610" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5377,7 +5377,7 @@
         <xdr:cNvPr id="42" name="文本框 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012E9AFF-E96E-400C-A8FA-CB21CEF515CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A415B5-3129-499C-A709-76073E358067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5385,8 +5385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6414135" y="17212945"/>
-          <a:ext cx="1390015" cy="257810"/>
+          <a:off x="6414135" y="16633825"/>
+          <a:ext cx="1390015" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5556,7 +5556,7 @@
         <xdr:cNvPr id="43" name="直接箭头连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087D041A-1FC3-428A-9879-4DDF2C9DDDCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CBBDF6-B782-4583-BE18-C3E7C95FDA40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +5566,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4933950" y="17666335"/>
+          <a:off x="4933950" y="17071975"/>
           <a:ext cx="1464310" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7EC116-48B0-4935-A849-3BAB29B54097}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A54C6E2-FF20-4F4C-A9D9-E946CBB08E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,8 +5614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6398260" y="17528540"/>
-          <a:ext cx="1390015" cy="274955"/>
+          <a:off x="6398260" y="16941800"/>
+          <a:ext cx="1390015" cy="259715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5785,7 +5785,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E968EB20-6AB2-4EAA-B6B8-833232E56021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754E690C-8C5F-4D2D-966D-66C4DA111608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5795,7 +5795,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4810125" y="18008600"/>
+          <a:off x="4810125" y="17399000"/>
           <a:ext cx="1600835" cy="22225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5835,7 +5835,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C65198-CE92-4D67-948C-BFD6407E4BC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5335BEED-A0E7-4E9C-A3DC-4D78BB2877EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,8 +5843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410960" y="17870805"/>
-          <a:ext cx="1390015" cy="257810"/>
+          <a:off x="6410960" y="17268825"/>
+          <a:ext cx="1390015" cy="250190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6014,7 +6014,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EEAD37-6943-4BB4-B3DF-907B7FF17D70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6EB905-D1EB-466E-9A38-443B4A00E000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6022,7 +6022,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010275" y="18393410"/>
+          <a:off x="6010275" y="17768570"/>
           <a:ext cx="375285" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6062,7 +6062,7 @@
         <xdr:cNvPr id="48" name="文本框 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAA9B79-BDC6-4872-BA36-291DED93C54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6387FE-019A-4725-BB04-5A9E520F8E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6070,8 +6070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6404610" y="18213070"/>
-          <a:ext cx="1598930" cy="644525"/>
+          <a:off x="6404610" y="17595850"/>
+          <a:ext cx="1598930" cy="621665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6241,7 +6241,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4B2C67-8749-4E40-A8CB-9BF73639B6A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3286CB-D569-48A6-A0DA-2A9F281E9CEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6257,8 +6257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="31552515"/>
-          <a:ext cx="7134860" cy="5259705"/>
+          <a:off x="152400" y="30550485"/>
+          <a:ext cx="7134860" cy="5053965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6289,7 +6289,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FAA317-E801-444D-8170-0E777880A188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1610CAF-6842-4CB6-A879-3E6F5BEA56A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6305,8 +6305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="730885" y="26958925"/>
-          <a:ext cx="4596130" cy="3291205"/>
+          <a:off x="730885" y="26090245"/>
+          <a:ext cx="4596130" cy="3161665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6337,7 +6337,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0BDAC5-E4DF-4350-9874-86A02483CF25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC0B12D-03EF-498F-BEFD-61A549CB3CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6353,8 +6353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="122555" y="37913310"/>
-          <a:ext cx="5424170" cy="1482090"/>
+          <a:off x="122555" y="36694110"/>
+          <a:ext cx="5424170" cy="1421130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6385,7 +6385,7 @@
         <xdr:cNvPr id="52" name="图片 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CF8090-1CA8-4BC8-94BF-4AF46F4E1DB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE01C7DA-AEA4-48DE-8381-21293126CD03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6401,8 +6401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="40438705"/>
-          <a:ext cx="2892425" cy="3067685"/>
+          <a:off x="2028825" y="39147115"/>
+          <a:ext cx="2892425" cy="2953385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6424,7 +6424,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
+      <xdr:colOff>319405</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6433,7 +6433,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9038385A-C564-4792-8062-B1527BB7875D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD64CD-C247-4880-B0DD-406F6F9FE211}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6449,8 +6449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515860" y="31944945"/>
-          <a:ext cx="6759575" cy="3678555"/>
+          <a:off x="7515860" y="30927675"/>
+          <a:ext cx="6754495" cy="3533775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6481,7 +6481,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9A7962-6D2A-49CE-808A-865D3ED12887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0C48EA-BF7F-4967-BEEB-1BC2874559CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6497,8 +6497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="5776595"/>
-          <a:ext cx="8334375" cy="4244340"/>
+          <a:off x="635" y="5628005"/>
+          <a:ext cx="8334375" cy="4084320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12109,7 +12109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D790DC-EF5B-4B73-B288-FFD5A190772A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A77A29-AF38-4021-BA72-F67A11668F22}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -12119,9 +12119,9 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.3984375" customWidth="1"/>
+    <col min="1" max="1" width="116.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12130,12 +12130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12143,7 +12143,7 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -12154,7 +12154,7 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -12192,7 +12192,7 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -12204,7 +12204,7 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -12298,7 +12298,7 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -12455,7 +12455,7 @@
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>8</v>
       </c>
@@ -12496,7 +12496,7 @@
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
     </row>
-    <row r="126" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -12555,17 +12555,17 @@
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
     </row>
-    <row r="146" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -12876,12 +12876,12 @@
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="178" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -12911,12 +12911,12 @@
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
     </row>
-    <row r="190" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
